--- a/biology/Histoire de la zoologie et de la botanique/Jean-Jacques_Dussumier/Jean-Jacques_Dussumier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Jacques_Dussumier/Jean-Jacques_Dussumier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Jacques Dussumier (1792–1883) est un voyageur, naturaliste et armateur de Bordeaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est connu pour avoir collecté des spécimens de zoologie provenant de l'Asie du Sud-Est et des régions autour de l'Océan Indien entre 1816 et 1840. Ces collections ont par la suite été étudiées et classées par d'éminents zoologistes comme Georges Cuvier ou Achille Valenciennes. Pour cette raison, de nombreuses espèces et même un genre, Dussumieria (Clupeidae), ont été nommés en son honneur. 
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces zoologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les espèces zoologiques associées au nom de Dussumier sont listées ci-dessous :
 Acanthurus dussumieri
